--- a/data/income_statement/2digits/size/93_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/93_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>93-Sports activities and amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>93-Sports activities and amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>165856.7186</v>
+        <v>233667.1842</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>186430.41883</v>
+        <v>313705.73967</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>235575.70299</v>
+        <v>362965.31302</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>341872.00528</v>
+        <v>433123.06553</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>480071.78733</v>
+        <v>654801.3893299999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>459733.66722</v>
+        <v>625785.41151</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>574501.30651</v>
+        <v>771220.0870800001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>652800.8742000001</v>
+        <v>815773.49203</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>839626.9592</v>
+        <v>1001281.02517</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1213737.55925</v>
+        <v>1411078.33087</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1280324.02427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1540389.89791</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1079533.075</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>161837.1403</v>
+        <v>209048.79178</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>183114.6194</v>
+        <v>293437.06089</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>216856.25865</v>
+        <v>329097.43025</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>316274.63615</v>
+        <v>395498.39149</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>408187.48077</v>
+        <v>590229.9305799999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>430139.6963</v>
+        <v>597600.4740699999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>556044.72653</v>
+        <v>741229.87706</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>591582.28827</v>
+        <v>759738.59161</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>785423.68643</v>
+        <v>956524.19765</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1158858.85933</v>
+        <v>1335722.85097</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1213927.46453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1479041.44836</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1031517.758</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1706.31524</v>
+        <v>19606.38163</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>857.4069300000001</v>
+        <v>14404.92257</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2714.12241</v>
+        <v>18578.15314</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10497.71574</v>
+        <v>24073.04192</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>53240.33818999999</v>
+        <v>44887.66588</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10115.57033</v>
+        <v>9935.05954</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2673.45103</v>
+        <v>6353.786659999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4080.84161</v>
+        <v>2614.29658</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17512.22314</v>
+        <v>17087.15166</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>23513.41732</v>
+        <v>31366.64052</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>24259.96465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14434.2076</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6238.825</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2313.26306</v>
+        <v>5012.01079</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2458.3925</v>
+        <v>5863.75621</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16005.32193</v>
+        <v>15289.72963</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15099.65339</v>
+        <v>13551.63212</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>18643.96837</v>
+        <v>19683.79287</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>19478.40059</v>
+        <v>18249.8779</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>15783.12895</v>
+        <v>23636.42336</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>57137.74432</v>
+        <v>53420.60384</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>36691.04962999999</v>
+        <v>27669.67586</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>31365.2826</v>
+        <v>43988.83938</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>42136.59509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46914.24195</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>41776.492</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1495.77001</v>
+        <v>1148.11836</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1239.47668</v>
+        <v>1972.57779</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2329.53796</v>
+        <v>2430.50123</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2064.79046</v>
+        <v>2423.17017</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1988.29668</v>
+        <v>2227.86922</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4231.9423</v>
+        <v>5425.95237</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6177.504980000001</v>
+        <v>5508.7998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4885.749589999999</v>
+        <v>8318.217980000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7040.7708</v>
+        <v>9453.549489999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6729.52118</v>
+        <v>12361.60557</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>11980.77082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16062.91019</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>49691.903</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1365.64898</v>
+        <v>1017.99733</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1239.47668</v>
+        <v>1972.57779</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1845.22562</v>
+        <v>1946.63111</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1534.17504</v>
+        <v>2321.98761</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1949.71315</v>
+        <v>2070.68787</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3487.53242</v>
+        <v>4583.40297</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5577.177640000001</v>
+        <v>4818.92115</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3499.72532</v>
+        <v>6931.79413</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6216.77409</v>
+        <v>8870.8797</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5464.30743</v>
+        <v>11096.39182</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8038.78132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13808.83983</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>30876.626</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>130.12103</v>
@@ -1190,37 +1126,42 @@
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>484.3123399999999</v>
+        <v>483.87012</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>529.8830899999999</v>
+        <v>94.51925</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>38.58353</v>
+        <v>156.33135</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>743.88766</v>
+        <v>842.02718</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>584.8366599999999</v>
+        <v>674.38797</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1342.08339</v>
+        <v>1342.22873</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>737.5470700000001</v>
+        <v>539.9786</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>899.6703299999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3934.00868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2246.08954</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18730.95</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1232,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>0.73233</v>
+        <v>6.66331</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0.52222</v>
@@ -1244,10 +1185,10 @@
         <v>15.49068</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>43.94088</v>
+        <v>44.19512</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>86.44964</v>
+        <v>42.69119</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>365.54342</v>
@@ -1255,221 +1196,251 @@
       <c r="M12" s="48" t="n">
         <v>7.98082</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>84.327</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>164360.94859</v>
+        <v>232519.06584</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>185190.94215</v>
+        <v>311733.16188</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>233246.16503</v>
+        <v>360534.8117899999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>339807.21482</v>
+        <v>430699.89536</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>478083.49065</v>
+        <v>652573.52011</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>455501.7249199999</v>
+        <v>620359.4591399999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>568323.8015299999</v>
+        <v>765711.2872799999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>647915.1246100001</v>
+        <v>807455.27405</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>832586.1884000001</v>
+        <v>991827.47568</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1207008.03807</v>
+        <v>1398716.7253</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1268343.25345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1524326.98772</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1029841.172</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>137077.18231</v>
+        <v>186385.36996</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>143996.09057</v>
+        <v>262161.97371</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>155941.55759</v>
+        <v>208343.16037</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>236721.03539</v>
+        <v>279245.92261</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>342816.24721</v>
+        <v>407706.2572000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>309812.1510299999</v>
+        <v>399366.5463099999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>382744.19434</v>
+        <v>497413.8997899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>470597.072</v>
+        <v>550990.70415</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>652818.07447</v>
+        <v>767268.6929400001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>860992.35541</v>
+        <v>965312.66162</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>841013.0114600001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>909043.7520699999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>773143.647</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>11732.15301</v>
+        <v>10006.03049</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>11631.08331</v>
+        <v>10540.64032</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2159.49236</v>
+        <v>1691.55836</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7693.68767</v>
+        <v>4278.54232</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>22948.52266</v>
+        <v>15096.22387</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6270.704819999999</v>
+        <v>14582.61659</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>14843.25896</v>
+        <v>12856.06938</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>22976.66234</v>
+        <v>14659.75401</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14829.88717</v>
+        <v>1891.10291</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8812.44477</v>
+        <v>8276.015450000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>26835.40213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23239.54352</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>51138.929</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3697.35508</v>
+        <v>3610.15173</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>18749.56591</v>
+        <v>22481.50592</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>17618.30923</v>
+        <v>20700.33765</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>17866.67043</v>
+        <v>17249.54131</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>61314.7556</v>
+        <v>71864.70655</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>17484.32161</v>
+        <v>21621.2317</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>14787.33509</v>
+        <v>29695.62332</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>27339.59592</v>
+        <v>30433.16808</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>100888.14701</v>
+        <v>108963.75413</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>66852.18458</v>
+        <v>116775.08067</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>77270.44424000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>70785.44078</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>68683.30100000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>121618.93922</v>
+        <v>172740.45274</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>113542.20618</v>
+        <v>228660.15445</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>135444.259</v>
+        <v>185951.26436</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>210605.63913</v>
+        <v>257354.28701</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>258145.30149</v>
+        <v>320731.22116</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>286009.03937</v>
+        <v>363114.61279</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>351339.65687</v>
+        <v>453088.26367</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>419262.67005</v>
+        <v>505681.80504</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>534693.6191</v>
+        <v>655774.10389</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>780581.99226</v>
+        <v>836597.72227</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>736246.79685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>814364.25378</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>648853.38</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28.735</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>73.23517</v>
+        <v>479.67302</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>719.497</v>
+        <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>555.0381600000001</v>
+        <v>363.55197</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>407.66746</v>
+        <v>14.10562</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>48.08523</v>
@@ -1478,100 +1449,115 @@
         <v>1773.94342</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1018.14369</v>
+        <v>215.97702</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2406.42119</v>
+        <v>639.7320100000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4745.7338</v>
+        <v>3663.84323</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>660.36824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>654.51399</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4468.037</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>27283.76628</v>
+        <v>46133.69587999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>41194.85158</v>
+        <v>49571.18816999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>77304.60743999999</v>
+        <v>152191.65142</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>103086.17943</v>
+        <v>151453.97275</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>135267.24344</v>
+        <v>244867.26291</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>145689.57389</v>
+        <v>220992.91283</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>185579.60719</v>
+        <v>268297.38749</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>177318.05261</v>
+        <v>256464.5699</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>179768.11393</v>
+        <v>224558.78274</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>346015.68266</v>
+        <v>433404.06368</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>427330.24199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>615283.23565</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>256697.525</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>56429.67278</v>
+        <v>112221.17346</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>73039.73385999999</v>
+        <v>171191.88002</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>92013.91036999998</v>
+        <v>225373.41271</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>125499.44966</v>
+        <v>157261.33263</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>148201.01342</v>
+        <v>221324.12185</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>187602.56977</v>
+        <v>253669.26259</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>230584.13992</v>
+        <v>309747.22619</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>224878.39</v>
+        <v>330648.56531</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>207989.51122</v>
+        <v>277966.09753</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>410499.1020700001</v>
+        <v>513281.60097</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>433550.00775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>593339.56562</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>424694.701</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,227 +1592,257 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5228.86133</v>
+        <v>5300.92913</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5627.91636</v>
+        <v>7535.404310000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6287.20951</v>
+        <v>6213.028240000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18065.95809</v>
+        <v>20658.85072</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21047.3613</v>
+        <v>21863.15515</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15465.33589</v>
+        <v>18750.91191</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>19143.86057</v>
+        <v>24761.73615</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>34327.21618</v>
+        <v>39613.15521</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>36703.11728</v>
+        <v>42112.09579000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>38985.00044</v>
+        <v>42358.39364</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>41669.67079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>48383.69273999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>32047.064</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>51200.81145</v>
+        <v>106920.24433</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>67411.8175</v>
+        <v>163656.47571</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>85698.26070999999</v>
+        <v>219131.94432</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>107433.49157</v>
+        <v>136602.48191</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>127153.65212</v>
+        <v>199460.9667</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>172093.27527</v>
+        <v>234874.39207</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>211440.27935</v>
+        <v>284985.4900399999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>190548.54755</v>
+        <v>291032.78383</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>162732.67452</v>
+        <v>227300.28232</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>365073.48002</v>
+        <v>464482.58572</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>391880.33696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>544955.87288</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>392647.637</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-29145.9065</v>
+        <v>-66087.47758000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-31844.88228</v>
+        <v>-121620.69185</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-14709.30293</v>
+        <v>-73181.76128999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-22413.27023</v>
+        <v>-5807.359879999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-12933.76998</v>
+        <v>23543.14106</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-41912.99587999999</v>
+        <v>-32676.34976</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-45004.53273000001</v>
+        <v>-41449.83869999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-47560.33739</v>
+        <v>-74183.99541</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-28221.39729</v>
+        <v>-53407.31479</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-64483.41940999999</v>
+        <v>-79877.53728999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-6219.765760000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21943.67003</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-167997.176</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>35217.43249</v>
+        <v>76332.14061</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>12190.52295</v>
+        <v>101572.59774</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>21104.76578</v>
+        <v>58161.83312</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>37062.32143</v>
+        <v>72787.53053</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>28625.95833</v>
+        <v>38744.47599</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>40068.38171</v>
+        <v>57728.56768</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>63659.37673999999</v>
+        <v>64031.60218000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>77343.50767000001</v>
+        <v>161186.43738</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>57075.96509999999</v>
+        <v>198253.70949</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>219814.24159</v>
+        <v>530086.75708</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>105697.20847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>342866.46906</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>511340.814</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>2688.25018</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>2544.53714</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>2846.97757</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>155.53629</v>
+        <v>4413.55767</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>400.6387</v>
+        <v>7693.59666</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>696.72101</v>
+        <v>4863.8649</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>246.54746</v>
+        <v>6017.33097</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>439.28831</v>
+        <v>7240.235110000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>789.6218100000001</v>
+        <v>5671.877219999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>639.5631999999999</v>
+        <v>3505.75008</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8732.32055</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13732.782</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>9.11914</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>136.67628</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>43.32906</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>3558.32998</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>504.40581</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,224 +1856,254 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1517.86608</v>
+        <v>5095.41162</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2075.03871</v>
+        <v>6465.153270000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2359.40473</v>
+        <v>9803.61448</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3980.22387</v>
+        <v>6080.35592</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3876.48942</v>
+        <v>4572.12775</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9171.959859999999</v>
+        <v>10140.51754</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8521.723739999999</v>
+        <v>11925.99949</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5505.28873</v>
+        <v>17285.24486</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>9097.88157</v>
+        <v>24737.89502</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>25730.55229</v>
+        <v>37154.11149</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16473.01216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>85906.96271000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>165484.843</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>86.81406</v>
+        <v>21.63475</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>770.0318100000001</v>
+        <v>756.49272</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>64.20613</v>
+        <v>320.44793</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>87.06005999999999</v>
+        <v>96.95861000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>84.33466</v>
+        <v>252.99712</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>63.88642</v>
+        <v>1715.7405</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>65.42142999999999</v>
+        <v>163.49324</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>12239.31518</v>
+        <v>12222.99793</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>54.83681</v>
+        <v>30728.47892</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3259.05961</v>
+        <v>3255.87863</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>73.37108000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>131.56491</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>52.386</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4929.17193</v>
+        <v>5114.025820000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>159.06296</v>
+        <v>26189.11845</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5037.93827</v>
+        <v>326.86449</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4981.936220000001</v>
+        <v>25995.65629</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>188.2363</v>
+        <v>688.1602800000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>445.67269</v>
+        <v>2755.94254</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>469.2072900000001</v>
+        <v>2097.8181</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1335.4843</v>
+        <v>2553.54176</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>771.85268</v>
+        <v>3149.15862</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2452.50196</v>
+        <v>3274.49003</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3125.63601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6037.06614</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8839.294</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>86.24554000000001</v>
+        <v>91.4824</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>251.51041</v>
+        <v>251.52655</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>296.25498</v>
+        <v>7226.92319</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>522.8089100000001</v>
+        <v>309.42423</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>114.14216</v>
+        <v>114.32178</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>261.99687</v>
+        <v>626.17725</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1580.17926</v>
+        <v>1235.92575</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>166.41957</v>
+        <v>600.08789</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>186.25806</v>
+        <v>914.24751</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1594.02489</v>
+        <v>13884.94906</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3357.13293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1846.06341</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>33944.573</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4940.426530000001</v>
+        <v>26193.25452</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3894.50572</v>
+        <v>17774.68643</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5650.5326</v>
+        <v>11890.79798</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10023.1375</v>
+        <v>18482.43076</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7493.90683</v>
+        <v>12452.94849</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>11484.03624</v>
+        <v>15364.88953</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>34399.01747</v>
+        <v>25193.12024</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>35297.77006</v>
+        <v>68483.93912000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>31122.80168</v>
+        <v>117720.91855</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>150475.7327</v>
+        <v>401680.59143</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>46731.99223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>203975.45286</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>271736.075</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>24.11085</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>4.67655</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>6.316</v>
+        <v>16.03504</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>8.317</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>10.15513</v>
+        <v>26.16153</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>948.4955699999999</v>
+        <v>957.05057</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0.74215</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>33.83647</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>131.062</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>23656.90835</v>
+        <v>37103.97047</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5040.37334</v>
+        <v>47577.28749</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7690.113069999999</v>
+        <v>25593.49616</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>17303.30158</v>
+        <v>17357.50099</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16458.05513</v>
+        <v>9385.832399999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>16995.61305</v>
+        <v>21304.38485</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>18376.53794</v>
+        <v>16892.76643</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22356.17773</v>
+        <v>52796.62692</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>15052.71249</v>
+        <v>15331.13365</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>35150.03394</v>
+        <v>66818.21335999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>35902.22758999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>36203.20201</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17419.799</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5925.887610000001</v>
+        <v>33096.75383</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5954.68383</v>
+        <v>35816.0812</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>11215.2795</v>
+        <v>32233.54897</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>12324.86056</v>
+        <v>25773.92572</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>17671.72436</v>
+        <v>39480.01158</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13961.55265</v>
+        <v>28866.24883</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>34938.01844</v>
+        <v>61035.50582</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>36625.97519</v>
+        <v>41516.68914</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>47279.22598999999</v>
+        <v>119160.12226</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>224850.23115</v>
+        <v>367957.9506</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>88932.95987000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>124810.55699</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>232086.043</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>703.40241</v>
+        <v>1761.75085</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>467.28338</v>
+        <v>786.6723400000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>522.1480899999999</v>
+        <v>544.88162</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>455.26354</v>
+        <v>437.73777</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>191.27282</v>
+        <v>184.44459</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>282.93083</v>
+        <v>273.24295</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>538.42781</v>
+        <v>426.04972</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>613.0049799999999</v>
+        <v>600.39108</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>359.53823</v>
+        <v>479.2374399999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>492.4558</v>
+        <v>1424.17252</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1804.47973</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4763.09924</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5887.25</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>38.4738</v>
+        <v>1119.53052</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>119.37895</v>
+        <v>828.97506</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>784.94107</v>
+        <v>11925.60007</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>590.6360400000001</v>
+        <v>2003.95392</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1224.94732</v>
+        <v>3003.20338</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2010.43443</v>
+        <v>6688.594770000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2437.42724</v>
+        <v>5497.53554</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3078.42751</v>
+        <v>4986.32395</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>9647.308060000001</v>
+        <v>15812.27627</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6104.1209</v>
+        <v>8776.889019999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10840.65905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>14612.38345</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14156.963</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,79 +2361,89 @@
         <v>10.34066</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1.5743</v>
+        <v>1.6618</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2081.90477</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>427.61126</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>100.38796</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3814.80547</v>
+        <v>21179.7104</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4080.08949</v>
+        <v>25748.42926</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9149.88877</v>
+        <v>12013.18139</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9859.906870000001</v>
+        <v>14733.62901</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>12106.16007</v>
+        <v>32660.99237</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9533.994559999999</v>
+        <v>20383.94153</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>26204.35892</v>
+        <v>25794.66372</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>30230.68982</v>
+        <v>32973.93172</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>34202.13967</v>
+        <v>101953.58018</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>215695.49149</v>
+        <v>348769.63545</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>73786.91222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>94796.13847000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>210992.874</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>4.67655</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>9.719040000000001</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>2.373</v>
@@ -2366,7 +2452,7 @@
         <v>6.631399999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7.89288</v>
+        <v>22.81088</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>10.89728</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>651.5786400000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>174.223</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>113.66548</v>
+        <v>771.1864399999999</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,374 +2516,424 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1369.20593</v>
+        <v>9031.085509999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1269.50171</v>
+        <v>8423.8552</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>745.5879100000001</v>
+        <v>7737.17223</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1410.84841</v>
+        <v>8590.311820000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3200.84858</v>
+        <v>2667.94892</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2123.29555</v>
+        <v>1509.5723</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3673.79557</v>
+        <v>29315.15271</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2590.1874</v>
+        <v>2184.85595</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2642.62877</v>
+        <v>915.02837</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2384.74196</v>
+        <v>8713.444650000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1849.33023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9987.357190000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>874.7329999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9653.506079999999</v>
+        <v>26063.08611</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8892.29593</v>
+        <v>27808.4399</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>13462.97685</v>
+        <v>34824.16721</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>18072.70468</v>
+        <v>26191.32761</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23169.03421</v>
+        <v>48761.16448</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>24187.81524</v>
+        <v>69724.72989</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33782.14807</v>
+        <v>52462.7122</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>33427.19693999999</v>
+        <v>148062.68539</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>34364.7225</v>
+        <v>100548.36792</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>68710.58235</v>
+        <v>389838.97304</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>52402.04599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>319261.66182</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>362016.951</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7942.606479999999</v>
+        <v>24352.18651</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8121.34916</v>
+        <v>21315.29633</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>12393.53875</v>
+        <v>22492.07536</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>16214.61179</v>
+        <v>22871.09871</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>21021.19094</v>
+        <v>37832.46469</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>22041.25216</v>
+        <v>33757.95782</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30546.7677</v>
+        <v>47504.34615</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>28326.03447</v>
+        <v>48340.61438</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>30837.58842</v>
+        <v>59971.04253999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>56937.33209999999</v>
+        <v>158796.98051</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>47131.46411</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>137640.3303</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>152592.829</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1710.8996</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>770.94677</v>
+        <v>6493.143569999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1069.4381</v>
+        <v>12332.09185</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1858.09289</v>
+        <v>3320.2289</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2147.84327</v>
+        <v>10928.69979</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2146.56308</v>
+        <v>35966.77207</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3235.38037</v>
+        <v>4958.36605</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5101.162469999999</v>
+        <v>99722.07100999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3527.13408</v>
+        <v>40577.32537999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>11773.25025</v>
+        <v>231041.99253</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5270.58188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>181621.33152</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>209424.122</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-9507.867700000001</v>
+        <v>-48915.17690999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-34501.33908999999</v>
+        <v>-83672.61520999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-18282.7935</v>
+        <v>-82077.64435</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-15748.51404</v>
+        <v>15014.91732</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-25148.57022</v>
+        <v>-25953.55901</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-39993.98206</v>
+        <v>-73538.7608</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-50065.3225</v>
+        <v>-90916.45453999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-40270.00185</v>
+        <v>-102576.93256</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-52789.38068</v>
+        <v>-74862.09548</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-138229.99132</v>
+        <v>-307587.70385</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-41857.56315000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-79262.07971999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-250759.356</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5745.75145</v>
+        <v>7527.66897</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>8542.88004</v>
+        <v>28599.09413</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6517.95913</v>
+        <v>19067.99268</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>19156.772</v>
+        <v>7727.93964</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6929.24341</v>
+        <v>8044.122699999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8928.50354</v>
+        <v>13304.46143</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7646.46274</v>
+        <v>9620.486929999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5831.35721</v>
+        <v>180520.43059</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>8480.313029999999</v>
+        <v>21285.61859</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15532.30681</v>
+        <v>25631.74481</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>68651.6554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1540479.5059</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>29749.126</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>29.66238</v>
+        <v>29.49566</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4.83919</v>
+        <v>31.22355</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>172.5244</v>
+        <v>196.7401</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>42.7423</v>
+        <v>465.76325</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>33.32862</v>
+        <v>18.582</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7.63401</v>
+        <v>0.07323</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>492.36199</v>
+        <v>26.50499</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12.16629</v>
+        <v>11.94831</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>595.35662</v>
+        <v>26.5291</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>93.95003</v>
+        <v>320.25779</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>32.2676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2283.113</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1.774</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5716.08907</v>
+        <v>7498.173309999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8538.040849999999</v>
+        <v>28567.87058</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6345.434730000001</v>
+        <v>18871.25258</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>19114.0297</v>
+        <v>7262.17639</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6895.91479</v>
+        <v>8025.5407</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8920.869530000002</v>
+        <v>13304.3882</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7154.10075</v>
+        <v>9593.981940000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5819.19092</v>
+        <v>180508.48228</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7884.95641</v>
+        <v>21259.08949</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15438.35678</v>
+        <v>25311.48702</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>68619.3878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1538196.3929</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>29747.352</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1949.28071</v>
+        <v>8721.66034</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5918.47229</v>
+        <v>14236.9689</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>20685.69038</v>
+        <v>19823.44414</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10399.65007</v>
+        <v>9552.361620000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8769.84957</v>
+        <v>8221.80961</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>21687.14968</v>
+        <v>24066.30893</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14294.89094</v>
+        <v>17852.90943</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13224.58015</v>
+        <v>24607.38303</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6639.03667</v>
+        <v>9178.200710000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22385.89539</v>
+        <v>27710.1977</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9010.992259999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>14711.94062</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16370.886</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>185.04165</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>164.89302</v>
+        <v>7.94379</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1190.16732</v>
+        <v>0.92683</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>705.09907</v>
+        <v>3.9239</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>243.56429</v>
+        <v>117.92868</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>392.83268</v>
+        <v>1437.25759</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>227.5633</v>
+        <v>320.52795</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2623.15068</v>
+        <v>1291.0417</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>203.85258</v>
+        <v>146.36126</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1004.88558</v>
+        <v>931.55915</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>295.24483</v>
+        <v>964.99326</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>565.79803</v>
+        <v>2343.98928</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>946.39305</v>
+        <v>1212.92389</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>190.99597</v>
+        <v>2213.04213</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>252.51695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2337.91868</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>145.797</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1520.67477</v>
+        <v>8418.69001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5360.74659</v>
+        <v>12791.76752</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>19267.95976</v>
+        <v>19501.98936</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7071.400320000001</v>
+        <v>8257.39602</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8565.99699</v>
+        <v>8075.448350000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>20682.2641</v>
+        <v>23134.74978</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13999.64611</v>
+        <v>16887.91617</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>12658.78212</v>
+        <v>22263.39375</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5692.64362</v>
+        <v>7965.27682</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>22194.89942</v>
+        <v>25497.15557</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>8758.47531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>12374.02194</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16225.089</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-5711.396960000001</v>
+        <v>-50109.16828</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-31876.93134</v>
+        <v>-69310.48998</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-32450.52475</v>
+        <v>-82833.09581</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-6991.392110000001</v>
+        <v>13190.49534</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-26989.17637999999</v>
+        <v>-26131.24592</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-52752.62820000001</v>
+        <v>-84300.60829999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-56713.7507</v>
+        <v>-99148.87704000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-47663.22479</v>
+        <v>53336.115</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-50948.10432</v>
+        <v>-62754.6776</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-145083.5799</v>
+        <v>-309666.15674</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>17783.09999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1446505.48556</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-237381.116</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1290.05126</v>
+        <v>6289.01807</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1429.0474</v>
+        <v>6913.897019999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1630.45227</v>
+        <v>5310.87433</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2161.78993</v>
+        <v>5484.99117</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4715.356269999999</v>
+        <v>7852.355040000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6448.22551</v>
+        <v>11881.68798</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8876.78018</v>
+        <v>8456.033959999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5684.68732</v>
+        <v>6879.04453</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7673.2436</v>
+        <v>15202.7493</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>18610.73387</v>
+        <v>26331.8664</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>18819.15574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>28505.07092</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>27573.864</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-7001.448219999999</v>
+        <v>-56398.18635</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-33305.97874</v>
+        <v>-76224.387</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-34080.97702000001</v>
+        <v>-88143.97014000002</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-9153.18204</v>
+        <v>7705.50417</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-31704.53265</v>
+        <v>-33983.60096000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-59200.85371</v>
+        <v>-96182.29628</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-65590.53087999999</v>
+        <v>-107604.911</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-53347.91211</v>
+        <v>46457.07047</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-58621.34792</v>
+        <v>-77957.42690000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-163694.31377</v>
+        <v>-335998.02314</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1036.05575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1418000.41464</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-264954.98</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>84</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>